--- a/medicine/Handicap/Liste_de_textes_relatifs_aux_droits_des_personnes_handicapées/Liste_de_textes_relatifs_aux_droits_des_personnes_handicapées.xlsx
+++ b/medicine/Handicap/Liste_de_textes_relatifs_aux_droits_des_personnes_handicapées/Liste_de_textes_relatifs_aux_droits_des_personnes_handicapées.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_de_textes_relatifs_aux_droits_des_personnes_handicap%C3%A9es</t>
+          <t>Liste_de_textes_relatifs_aux_droits_des_personnes_handicapées</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les personnes handicapées disposent de droits ou de disposition pour le bon établissement de leur droit dans différents secteurs : éducation, logement, santé, emploi, accessibilité... ci après la liste (non exhaustive) de textes juridiques, lois et décrets dédiés au handicap.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_de_textes_relatifs_aux_droits_des_personnes_handicap%C3%A9es</t>
+          <t>Liste_de_textes_relatifs_aux_droits_des_personnes_handicapées</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,16 +525,19 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>ONU
-Déclaration des droits du déficient mental, 2027e séance plénière, le 20 décembre 1971[1],[2].
-Déclaration des droits des personnes handicapées - 2433e séance plénière, le 9 décembre 1975[2],[3].
-1981 : Année internationale des personnes handicapées[4].
-Programme d'action mondial concernant les personnes handicapés[5], 3 décembre 1981.
-Convention relative aux droits de l'enfant[6], l'article 23 reconnait la vulnérabilité des enfants handicapés et demande la non-discrimination, le 20 décembre 1989[7].
-3 décembre : journée internationale des personnes handicapées instaurée en 1992[8].
-Convention relative aux droits des personnes handicapées adoptée le 13 décembre 2006 au siège de l’Organisation des Nations unies à New York et ouverte à la signature le 30 mars 2007[9],[2].
-UNESCO
-Déclaration Sundberg[10] adoptée par l'UNESCO lors de la conférence mondiale d'action et de stratégie pour l'éducation, la prévention et l’intégration à l'occasion de l'année internationale pour les personnes handicapées, Malaga (Espagne) , 2 - 7 novembre 1981[11]</t>
+          <t>ONU</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Déclaration des droits du déficient mental, 2027e séance plénière, le 20 décembre 1971,.
+Déclaration des droits des personnes handicapées - 2433e séance plénière, le 9 décembre 1975,.
+1981 : Année internationale des personnes handicapées.
+Programme d'action mondial concernant les personnes handicapés, 3 décembre 1981.
+Convention relative aux droits de l'enfant, l'article 23 reconnait la vulnérabilité des enfants handicapés et demande la non-discrimination, le 20 décembre 1989.
+3 décembre : journée internationale des personnes handicapées instaurée en 1992.
+Convention relative aux droits des personnes handicapées adoptée le 13 décembre 2006 au siège de l’Organisation des Nations unies à New York et ouverte à la signature le 30 mars 2007,.</t>
         </is>
       </c>
     </row>
@@ -532,7 +547,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_de_textes_relatifs_aux_droits_des_personnes_handicap%C3%A9es</t>
+          <t>Liste_de_textes_relatifs_aux_droits_des_personnes_handicapées</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,36 +562,248 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Textes internationaux</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>UNESCO</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Déclaration Sundberg adoptée par l'UNESCO lors de la conférence mondiale d'action et de stratégie pour l'éducation, la prévention et l’intégration à l'occasion de l'année internationale pour les personnes handicapées, Malaga (Espagne) , 2 - 7 novembre 1981</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liste_de_textes_relatifs_aux_droits_des_personnes_handicapées</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_textes_relatifs_aux_droits_des_personnes_handicap%C3%A9es</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>En France</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>La loi n° 2005-102 du 11 février 2005[12] pour l'égalité des droits et des chances, la participation et la citoyenneté des personnes handicapées; dite «Loi Handicap» est le principal texte réunissant l'ensemble des dispositions.
-Code de l'action sociale et des familles
-Allocation compensatrice pour frais professionnels (ACFP) : Articles L245-1 à L245-14[13]
-Allocation compensatrice pour tierce personne (ACTP) : Article R245-32[14]
-Carte de priorité pour personnes handicapées : Article L 241-3-1[15] et Articles R241-12 à R241-15[16]
-Établissements et services sociaux et médico-sociaux : Article L312-1[17] - Article L314-8[18] - Article L314-8[19] - Articles D312-8 à D312-10[20]
-Handicap psychique : la loi n° 2005-102 du 11 février 2005[12] dans son article 2, insère dans sa définition légale du handicap les troubles cognitifs et psychiques et établi de façon officielle le handicap psychique.
-Lutte contre la maltraitance et au développement de la bientraitance des personnes âgées et des personnes handicapées dans les établissements et services médico-sociaux : Circulaire DGCS/SD2A N° 2011-282 du 12 juillet 2011[21] - Circulaire N° DGCS/SD2A/2014/58 du 20 février 2014[22]
-Maisons départementales des personnes handicapées : Loi n° 2011-901 du 28 juillet 2011[23] tendant à améliorer le fonctionnement des maisons départementales des personnes handicapées et portant diverses dispositions relatives à la politique du handicap.
-Services d'accompagnement à la vie sociale (SAVS) et services d'accompagnement médico-social pour adultes handicapés (SAMSAH) : Décret n° 2005-223 du 11 mars 2005[24] relatif aux conditions d'organisation et de fonctionnement des services d'accompagnement à la vie sociale (SAVS) et des services d'accompagnement médico-social pour adultes handicapés (SAMSAH).
-Solidarité pour l'autonomie des personnes âgées et des personnes handicapées : Loi n° 2004-626 du 30 juin 2004[25]
-Code de l'éducation
-Langue des signes : Décret N°2006-509 du 3 mai 2006 pour l'éducation et le parcours scolaire des jeunes sourds[26] - La loi n° 2005-102 du 11 février 2005 reconnaît officiellement la langue des signes, apportant des modifications et dispositions au code de l'éducation.
-Code de la sécurité sociale
-Allocation aux adultes handicapés : Articles R821-1 à R821-9[27]
-Allocation d'éducation de l'enfant handicapé (AEEH) : Articles L541-1 à L541-4[28]
-Code de la santé publique
-Psychiatrie
-Les droits et la protection des personnes faisant l'objet de soins psychiatriques et modalités de leur prise en charge avec ou sans consentement[29],[30]:
-Loi n° 2011-803 du 5 juillet 2011[31] relative aux droits des personnes faisant l'objet de soins psychiatriques, modifiée par la loi n° 2013-869 du 27 septembre 2013[32],[29]
-Décret n° 2011-846 du 18 juillet 2011[33] relatif à la procédure judiciaire de mainlevée ou de contrôle des mesures de soins psychiatriques.
-Décret n° 2011-847 du 18 juillet 2011[34] relatif aux droits des personnes faisant l'objet de soins psychiatriques
-Circulaire N°DGOS/R4/2011/312 du 29 juillet 2011[35] relative aux droits des personnes faisant l'objet de soins psychiatriques
-Code de l'urbanisme
-Accessibilité du logement à des personnes handicapées : Article R*431-31 du 18 juin 2009[36]</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La loi n° 2005-102 du 11 février 2005 pour l'égalité des droits et des chances, la participation et la citoyenneté des personnes handicapées; dite «Loi Handicap» est le principal texte réunissant l'ensemble des dispositions.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Liste_de_textes_relatifs_aux_droits_des_personnes_handicapées</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_textes_relatifs_aux_droits_des_personnes_handicap%C3%A9es</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>En France</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Code de l'action sociale et des familles</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Allocation compensatrice pour frais professionnels (ACFP) : Articles L245-1 à L245-14
+Allocation compensatrice pour tierce personne (ACTP) : Article R245-32
+Carte de priorité pour personnes handicapées : Article L 241-3-1 et Articles R241-12 à R241-15
+Établissements et services sociaux et médico-sociaux : Article L312-1 - Article L314-8 - Article L314-8 - Articles D312-8 à D312-10
+Handicap psychique : la loi n° 2005-102 du 11 février 2005 dans son article 2, insère dans sa définition légale du handicap les troubles cognitifs et psychiques et établi de façon officielle le handicap psychique.
+Lutte contre la maltraitance et au développement de la bientraitance des personnes âgées et des personnes handicapées dans les établissements et services médico-sociaux : Circulaire DGCS/SD2A N° 2011-282 du 12 juillet 2011 - Circulaire N° DGCS/SD2A/2014/58 du 20 février 2014
+Maisons départementales des personnes handicapées : Loi n° 2011-901 du 28 juillet 2011 tendant à améliorer le fonctionnement des maisons départementales des personnes handicapées et portant diverses dispositions relatives à la politique du handicap.
+Services d'accompagnement à la vie sociale (SAVS) et services d'accompagnement médico-social pour adultes handicapés (SAMSAH) : Décret n° 2005-223 du 11 mars 2005 relatif aux conditions d'organisation et de fonctionnement des services d'accompagnement à la vie sociale (SAVS) et des services d'accompagnement médico-social pour adultes handicapés (SAMSAH).
+Solidarité pour l'autonomie des personnes âgées et des personnes handicapées : Loi n° 2004-626 du 30 juin 2004</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Liste_de_textes_relatifs_aux_droits_des_personnes_handicapées</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_textes_relatifs_aux_droits_des_personnes_handicap%C3%A9es</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>En France</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Code de l'éducation</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Langue des signes : Décret N°2006-509 du 3 mai 2006 pour l'éducation et le parcours scolaire des jeunes sourds - La loi n° 2005-102 du 11 février 2005 reconnaît officiellement la langue des signes, apportant des modifications et dispositions au code de l'éducation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Liste_de_textes_relatifs_aux_droits_des_personnes_handicapées</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_textes_relatifs_aux_droits_des_personnes_handicap%C3%A9es</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>En France</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Code de la sécurité sociale</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Allocation aux adultes handicapés : Articles R821-1 à R821-9
+Allocation d'éducation de l'enfant handicapé (AEEH) : Articles L541-1 à L541-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Liste_de_textes_relatifs_aux_droits_des_personnes_handicapées</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_textes_relatifs_aux_droits_des_personnes_handicap%C3%A9es</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>En France</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Code de la santé publique</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Psychiatrie</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Les droits et la protection des personnes faisant l'objet de soins psychiatriques et modalités de leur prise en charge avec ou sans consentement,:
+Loi n° 2011-803 du 5 juillet 2011 relative aux droits des personnes faisant l'objet de soins psychiatriques, modifiée par la loi n° 2013-869 du 27 septembre 2013,
+Décret n° 2011-846 du 18 juillet 2011 relatif à la procédure judiciaire de mainlevée ou de contrôle des mesures de soins psychiatriques.
+Décret n° 2011-847 du 18 juillet 2011 relatif aux droits des personnes faisant l'objet de soins psychiatriques
+Circulaire N°DGOS/R4/2011/312 du 29 juillet 2011 relative aux droits des personnes faisant l'objet de soins psychiatriques</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Liste_de_textes_relatifs_aux_droits_des_personnes_handicapées</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_textes_relatifs_aux_droits_des_personnes_handicap%C3%A9es</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>En France</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Code de l'urbanisme</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Accessibilité du logement à des personnes handicapées : Article R*431-31 du 18 juin 2009</t>
         </is>
       </c>
     </row>
